--- a/data/trans_dic/iP30B3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B3_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>99,04%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,6</t>
+          <t>96,39; 99,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,74; 99,63</t>
+          <t>98,08; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,35; 98,77</t>
+          <t>97,84; 99,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>97,91%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,39; 99,62</t>
+          <t>94,01; 98,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98,08; 100,0</t>
+          <t>97,74; 99,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,67</t>
+          <t>96,35; 98,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B3_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,23%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,07; 98,45</t>
+          <t>90,66; 99,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,38; 99,5</t>
+          <t>92,18; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,15; 98,64</t>
+          <t>93,74; 98,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,39; 99,62</t>
+          <t>94,41; 98,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>98,08; 100,0</t>
+          <t>96,97; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,67</t>
+          <t>96,33; 99,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,6</t>
+          <t>97,8; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,74; 99,63</t>
+          <t>96,38; 99,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,35; 98,77</t>
+          <t>97,82; 99,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,1; 98,5</t>
+          <t>92,55; 98,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,48</t>
+          <t>97,76; 99,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,18; 98,74</t>
+          <t>95,69; 98,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>97,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>98,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>98,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95,88; 98,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98,1; 99,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97,3; 98,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
